--- a/Παραδειγμα τελικη μορφηΤΜΗΜΑ.xlsx
+++ b/Παραδειγμα τελικη μορφηΤΜΗΜΑ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\LOTUS103 SIMPLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\LOTUS104\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8744A3F-5817-471B-AED2-DC22B81F6717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6DBEF8-4FC8-4C1E-BA68-9BE9F022582F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="65">
   <si>
     <t>Μαρία Παπαδοπούλου</t>
   </si>
@@ -199,10 +199,22 @@
     <t>ΚΑΛΗ_ΓΝΩΣΗ_ΕΛΛΗΝΙΚΩΝ</t>
   </si>
   <si>
-    <t>ΠΡΟΤΕΙΝΟΜΕΝΟ_ΤΜΗΜΑ</t>
-  </si>
-  <si>
     <t>ΠΑΙΔΙ_ΕΚΠΑΙΔΕΥΤΙΚΟΥ</t>
+  </si>
+  <si>
+    <t>ΣΕΝΑΡΙΟ_1</t>
+  </si>
+  <si>
+    <t>ΣΕΝΑΡΙΟ_2</t>
+  </si>
+  <si>
+    <t>ΣΕΝΑΡΙΟ_3</t>
+  </si>
+  <si>
+    <t>ΣΕΝΑΡΙΟ_4</t>
+  </si>
+  <si>
+    <t>ΣΕΝΑΡΙΟ_5</t>
   </si>
 </sst>
 </file>
@@ -583,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,12 +611,15 @@
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="7" max="7" width="34.5703125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
     <col min="10" max="10" width="23.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -612,7 +627,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>52</v>
@@ -629,14 +644,26 @@
       <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>59</v>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -662,7 +689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -685,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -708,7 +735,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -731,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -754,7 +781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -777,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -800,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -823,7 +850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -846,7 +873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -869,7 +896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -892,7 +919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -915,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -938,7 +965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -961,7 +988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1650,6 +1677,9 @@
       <c r="G45" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
